--- a/INO_02022026.xlsx
+++ b/INO_02022026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER ID\Downloads\Laporan Harian, Mingguan, dan Bulanan\Mingguan\2025\Desember\1 - 5 Desember 2025\Nowcating tool\Nowcating tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER ID\Downloads\LATSAR\Data-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD9601F-B604-40C5-AD28-56E809FAA17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A629052-63C1-4616-A152-40426133FE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="555" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1750,7 +1750,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G132" sqref="G132"/>
+      <selection pane="bottomRight" activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3687,6 +3687,15 @@
       <c r="A133" s="35">
         <f t="shared" si="2"/>
         <v>45992</v>
+      </c>
+      <c r="B133" s="25">
+        <v>3474461.2</v>
+      </c>
+      <c r="C133" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="D133" s="1">
+        <v>10.61</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -4345,10 +4354,10 @@
   <dimension ref="A1:AW409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B392" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L126" sqref="L126"/>
+      <selection pane="bottomRight" activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32944,6 +32953,18 @@
       <c r="A398" s="35">
         <f t="shared" si="6"/>
         <v>46023</v>
+      </c>
+      <c r="B398" s="9">
+        <v>50.6</v>
+      </c>
+      <c r="J398" s="9">
+        <v>3.55</v>
+      </c>
+      <c r="K398" s="9">
+        <v>16769</v>
+      </c>
+      <c r="L398" s="9">
+        <v>4.75</v>
       </c>
     </row>
     <row r="399" spans="1:49" x14ac:dyDescent="0.35">
@@ -56042,29 +56063,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <j78542b1fffc4a1c84659474212e3133 xmlns="c1fdd505-2570-46c2-bd04-3e0f2d874cf5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ERCD</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ab3ec0c9-2ce1-477e-8dd0-15d1f7f6b467</TermId>
-        </TermInfo>
-      </Terms>
-    </j78542b1fffc4a1c84659474212e3133>
-    <MediaServiceMetadata xmlns="3e67d855-eb8c-4ffd-bce5-6c5a51e71190" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="3e67d855-eb8c-4ffd-bce5-6c5a51e71190" xsi:nil="true"/>
-    <ia017ac09b1942648b563fe0b2b14d52 xmlns="c1fdd505-2570-46c2-bd04-3e0f2d874cf5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ERMR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1b0f6326-b8c9-47db-9084-1685569433b2</TermId>
-        </TermInfo>
-      </Terms>
-    </ia017ac09b1942648b563fe0b2b14d52>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e67d855-eb8c-4ffd-bce5-6c5a51e71190" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56292,21 +56296,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <j78542b1fffc4a1c84659474212e3133 xmlns="c1fdd505-2570-46c2-bd04-3e0f2d874cf5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ERCD</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ab3ec0c9-2ce1-477e-8dd0-15d1f7f6b467</TermId>
+        </TermInfo>
+      </Terms>
+    </j78542b1fffc4a1c84659474212e3133>
+    <MediaServiceMetadata xmlns="3e67d855-eb8c-4ffd-bce5-6c5a51e71190" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="3e67d855-eb8c-4ffd-bce5-6c5a51e71190" xsi:nil="true"/>
+    <ia017ac09b1942648b563fe0b2b14d52 xmlns="c1fdd505-2570-46c2-bd04-3e0f2d874cf5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ERMR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1b0f6326-b8c9-47db-9084-1685569433b2</TermId>
+        </TermInfo>
+      </Terms>
+    </ia017ac09b1942648b563fe0b2b14d52>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e67d855-eb8c-4ffd-bce5-6c5a51e71190" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65C82102-7CB7-4996-927B-F3BF17749174}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DB3881C-2544-48B5-BABA-97D25898F909}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1fdd505-2570-46c2-bd04-3e0f2d874cf5"/>
-    <ds:schemaRef ds:uri="3e67d855-eb8c-4ffd-bce5-6c5a51e71190"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -56332,9 +56350,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DB3881C-2544-48B5-BABA-97D25898F909}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65C82102-7CB7-4996-927B-F3BF17749174}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1fdd505-2570-46c2-bd04-3e0f2d874cf5"/>
+    <ds:schemaRef ds:uri="3e67d855-eb8c-4ffd-bce5-6c5a51e71190"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>